--- a/now-1/Booking System/Create New Order/Default.xlsx
+++ b/now-1/Booking System/Create New Order/Default.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Class</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Passenger</t>
+  </si>
+  <si>
+    <t>Order 208 completed</t>
   </si>
   <si>
     <t>Order_Confirmation</t>
@@ -192,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,13 +203,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -505,18 +538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K1048576"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1" customWidth="1"/>
+    <col min="1" max="8" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.41796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.359375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
@@ -524,30 +557,47 @@
         <v>1</v>
       </c>
       <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>0</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
         <v>6</v>
       </c>
       <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
         <v>5</v>
       </c>
-      <c t="s">
+    </row>
+    <row>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1"/>
+      <c s="1" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(J2,"Order ","")," completed","")</f>
+        <v>208</v>
+      </c>
+      <c s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -566,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -585,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -604,7 +654,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>
@@ -623,7 +673,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1"/>

--- a/now-1/Booking System/Create New Order/Default.xlsx
+++ b/now-1/Booking System/Create New Order/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="FR - Select Flight" sheetId="3" r:id="rId3"/>
     <sheet name="FR - Enter Passenger Details" sheetId="4" r:id="rId4"/>
     <sheet name="FR - Close App" sheetId="5" r:id="rId5"/>
+    <sheet name="FR - Find Flights" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>Denver</t>
+  </si>
   <si>
     <t>Class</t>
   </si>
@@ -26,6 +30,9 @@
     <t>Agentname</t>
   </si>
   <si>
+    <t>20/04/2020</t>
+  </si>
+  <si>
     <t>FlyTo</t>
   </si>
   <si>
@@ -35,9 +42,18 @@
     <t>Order 208 completed</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>Order_Confirmation</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Amir Khan</t>
+  </si>
+  <si>
     <t>Order_No</t>
   </si>
   <si>
@@ -47,10 +63,16 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Economy</t>
+  </si>
+  <si>
     <t>Tickets</t>
   </si>
   <si>
     <t>FlyFrom</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
   </si>
 </sst>
 </file>
@@ -541,12 +563,19 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="8" width="11.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.5078125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.21484375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.45703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.046875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.5859375" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.41796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="18.359375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="2" customWidth="1"/>
@@ -554,51 +583,67 @@
   <sheetData>
     <row customFormat="1">
       <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>12</v>
+      </c>
+      <c t="s">
+        <v>16</v>
+      </c>
+      <c t="s">
+        <v>4</v>
+      </c>
+      <c t="s">
+        <v>13</v>
+      </c>
+      <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+      <c t="s">
+        <v>11</v>
       </c>
       <c t="s">
         <v>8</v>
-      </c>
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>6</v>
-      </c>
-      <c t="s">
-        <v>5</v>
       </c>
     </row>
     <row>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
-      <c s="1"/>
+      <c s="1" t="s">
+        <v>9</v>
+      </c>
+      <c s="1" t="s">
+        <v>7</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" t="s">
+        <v>3</v>
+      </c>
+      <c s="1" t="s">
+        <v>14</v>
+      </c>
+      <c s="1">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>10</v>
+      </c>
       <c s="1" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(J2,"Order ","")," completed","")</f>
         <v>208</v>
       </c>
       <c s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -667,6 +712,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
